--- a/log.xlsx
+++ b/log.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t xml:space="preserve">题号</t>
   </si>
@@ -264,25 +264,7 @@
     <t xml:space="preserve">Hint:可以将其转换为图来思考</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Union Find:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://www.cnblogs.com/wxgblogs/p/5707503.html</t>
-    </r>
+    <t xml:space="preserve">Union Find:https://www.cnblogs.com/wxgblogs/p/5707503.html</t>
   </si>
   <si>
     <t xml:space="preserve">DFS</t>
@@ -303,7 +285,10 @@
     <t xml:space="preserve">130. Surrounded Regions</t>
   </si>
   <si>
-    <t xml:space="preserve">Union Find</t>
+    <t xml:space="preserve">Union Find, DFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">与之前的island不同,抓住与边界联通的点则不是被包围这一点来dfs或者uf</t>
   </si>
 </sst>
 </file>
@@ -405,7 +390,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -438,16 +423,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -530,7 +511,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
+      <selection pane="topLeft" activeCell="M10" activeCellId="0" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -748,27 +729,27 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8" t="n">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="n">
         <v>8.6</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8" t="s">
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="9" t="s">
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="8" t="s">
         <v>33</v>
       </c>
       <c r="N9" s="0" t="s">
@@ -776,49 +757,54 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="8" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8" t="n">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="n">
         <v>8.6</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8" t="s">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
       <c r="M10" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8" t="n">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="n">
         <v>8.6</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="44">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
@@ -862,9 +848,10 @@
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="M9" r:id="rId1" display="https://www.cnblogs.com/wxgblogs/p/5707503.html"/>
+    <hyperlink ref="M9" r:id="rId1" display="Union Find:https://www.cnblogs.com/wxgblogs/p/5707503.html"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/log.xlsx
+++ b/log.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t xml:space="preserve">题号</t>
   </si>
@@ -289,6 +289,40 @@
   </si>
   <si>
     <t xml:space="preserve">与之前的island不同,抓住与边界联通的点则不是被包围这一点来dfs或者uf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23. Merge k Sorted Lists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divide and Conquer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merge sort(On),heap sort(Ologn)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">注意二分法的使用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Median of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">抓住二分法的关键分割点</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -298,7 +332,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK SC Regular"/>
@@ -340,6 +374,17 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -390,7 +435,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -427,8 +472,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -508,10 +561,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M10" activeCellId="0" sqref="M10"/>
+      <selection pane="topLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -797,14 +850,62 @@
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="9" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="9" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="52">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
@@ -849,9 +950,18 @@
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="J11:L11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M9" r:id="rId1" display="Union Find:https://www.cnblogs.com/wxgblogs/p/5707503.html"/>
+    <hyperlink ref="M13" r:id="rId2" display=" "/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/log.xlsx
+++ b/log.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t xml:space="preserve">题号</t>
   </si>
@@ -306,23 +306,22 @@
     <t xml:space="preserve">4. Median of Two Sorted Arrays</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">抓住二分法的关键分割点</t>
-    </r>
+    <t xml:space="preserve">二分法的边界问题可以单独拿出来进行处理,抓住什么时候进行移动+-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 抓住二分法的关键分割点</t>
+  </si>
+  <si>
+    <t xml:space="preserve">208. Implement Trie (Prefix Tree)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">238. Product of Array Except Self</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Array</t>
   </si>
 </sst>
 </file>
@@ -332,7 +331,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK SC Regular"/>
@@ -374,17 +373,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Noto Sans CJK SC Regular"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Noto Sans CJK SC Regular"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -472,16 +460,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -561,10 +549,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
+      <selection pane="topLeft" activeCell="L22" activeCellId="0" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -887,25 +875,61 @@
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
       <c r="G13" s="9" t="n">
         <v>8.9</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+      <c r="J13" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
-      <c r="M13" s="11" t="s">
-        <v>47</v>
-      </c>
+      <c r="M13" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11" t="n">
+        <v>8.13</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11" t="n">
+        <v>8.14</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="58">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
@@ -958,10 +982,16 @@
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="J13:L13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M9" r:id="rId1" display="Union Find:https://www.cnblogs.com/wxgblogs/p/5707503.html"/>
-    <hyperlink ref="M13" r:id="rId2" display=" "/>
+    <hyperlink ref="M13" r:id="rId2" display=" 抓住二分法的关键分割点"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/log.xlsx
+++ b/log.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t xml:space="preserve">题号</t>
   </si>
@@ -322,6 +322,9 @@
   </si>
   <si>
     <t xml:space="preserve">Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">抓住乘积的关键,都是该元素前与后元素之和组成的,并且处理数组不是双指针就是前后遍历</t>
   </si>
 </sst>
 </file>
@@ -423,7 +426,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -470,6 +473,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -552,7 +559,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L22" activeCellId="0" sqref="L22"/>
+      <selection pane="topLeft" activeCell="M19" activeCellId="0" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -911,7 +918,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
         <v>51</v>
       </c>
@@ -927,9 +934,14 @@
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
+      <c r="J15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="58">
+  <mergeCells count="59">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
@@ -988,6 +1000,7 @@
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M9" r:id="rId1" display="Union Find:https://www.cnblogs.com/wxgblogs/p/5707503.html"/>

--- a/log.xlsx
+++ b/log.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t xml:space="preserve">题号</t>
   </si>
@@ -325,6 +325,12 @@
   </si>
   <si>
     <t xml:space="preserve">抓住乘积的关键,都是该元素前与后元素之和组成的,并且处理数组不是双指针就是前后遍历</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152. Maximum Product Subarray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subarray的最大乘积等于max(当前的元素,max(前面最大乘积*当前元素,前面最小乘积*当前元素)),因为考虑到符号的转变</t>
   </si>
 </sst>
 </file>
@@ -556,10 +562,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M19" activeCellId="0" sqref="M19"/>
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -902,46 +908,68 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11" t="n">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="n">
         <v>8.13</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11" t="n">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3" t="n">
         <v>8.14</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="12" t="s">
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11" t="n">
+        <v>8.21</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
+  <mergeCells count="63">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
@@ -1001,6 +1029,10 @@
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="J15:L15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M9" r:id="rId1" display="Union Find:https://www.cnblogs.com/wxgblogs/p/5707503.html"/>

--- a/log.xlsx
+++ b/log.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
   <si>
     <t xml:space="preserve">题号</t>
   </si>
@@ -331,6 +331,23 @@
   </si>
   <si>
     <t xml:space="preserve">subarray的最大乘积等于max(当前的元素,max(前面最大乘积*当前元素,前面最小乘积*当前元素)),因为考虑到符号的转变</t>
+  </si>
+  <si>
+    <t xml:space="preserve">153. Find Minimum in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">找到最右边的最小值即可</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96. Unique Binary Search Trees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BST条件:结点node的左子树所有结点的值都小于node的值。
+结点node的右子树所有结点的值都大于node的值。
+结点node的左右子树同样都必须是二叉搜索树。</t>
   </si>
 </sst>
 </file>
@@ -432,21 +449,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -454,15 +471,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -470,15 +483,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -562,198 +567,198 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="50.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="25.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="50.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="25.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="14" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="0" t="s">
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="n">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="n">
         <v>8.3</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="3" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="N2" s="0" t="s">
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="N2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="n">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="n">
         <v>8.3</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="3" t="s">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="N3" s="0" t="s">
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="N3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="n">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="n">
         <v>8.3</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-      <c r="N4" s="0" t="s">
+      <c r="N4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="n">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="n">
         <v>8.5</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="N5" s="0" t="s">
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="N5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="n">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="n">
         <v>8.5</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3" t="s">
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="0" t="s">
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="0" t="s">
+      <c r="N6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+    <row r="7" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="n">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="n">
         <v>8.5</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3" t="s">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="N7" s="0" t="s">
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="N7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -773,40 +778,40 @@
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="7" t="s">
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3" t="n">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="n">
         <v>8.6</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3" t="s">
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="8" t="s">
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="N9" s="0" t="s">
+      <c r="N9" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -816,160 +821,205 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="n">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="n">
         <v>8.6</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3" t="s">
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="7" t="s">
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3" t="n">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="n">
         <v>8.6</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="9" t="n">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="8" t="n">
         <v>8.8</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9" t="s">
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="0" t="s">
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="s">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="3" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="9" t="n">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="8" t="n">
         <v>8.9</v>
       </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9" t="s">
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="10" t="s">
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="n">
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="n">
         <v>8.13</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3" t="n">
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="n">
         <v>8.14</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
       <c r="J15" s="4" t="s">
         <v>53</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
+    <row r="16" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11" t="s">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11" t="n">
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9" t="n">
         <v>8.21</v>
       </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="12" t="s">
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9" t="n">
+        <v>8.21</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" customFormat="false" ht="86.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9" t="n">
+        <v>8.21</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="63">
+  <mergeCells count="71">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
@@ -1033,6 +1083,14 @@
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="J16:L16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M9" r:id="rId1" display="Union Find:https://www.cnblogs.com/wxgblogs/p/5707503.html"/>
